--- a/data/trans_orig/P42C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE3509A-AD6C-499C-935B-4A088883369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9100C618-5CE0-4FAB-AC53-14CB2EC22072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3677846C-4B29-4226-8995-35FECC53DBE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB527E8F-B2EA-4203-94BE-BD2200B43212}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="91">
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -79,10 +79,10 @@
     <t>12,73%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>87,27%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>25,46%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>45,68%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -238,79 +238,79 @@
     <t>85,86%</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2023 (Tasa respuesta: 36,36%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>48,67%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>51,33%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E73044-A172-497A-82AD-053A8B15D9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C5228-9513-42C3-A67C-18C89A7AA305}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57858D40-04D7-4E90-AD91-9F76A3D2FAE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9228AB-68EF-43F3-AF92-5EF3FE4484B3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598210D7-D432-4735-8E3A-4AFCA3CF84FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9D6623-301C-4034-8400-34989860AE60}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P42C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9100C618-5CE0-4FAB-AC53-14CB2EC22072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A68941-BE10-4D1E-A7DA-9917407E86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB527E8F-B2EA-4203-94BE-BD2200B43212}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C79F95AB-0B91-4A04-B2E7-0C8DAD30A31C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>12,73%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>87,27%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>25,46%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,115 +127,115 @@
     <t>45,68%</t>
   </si>
   <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2015 (Tasa respuesta: 39,91%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2016 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C5228-9513-42C3-A67C-18C89A7AA305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB28923-96E1-4987-8496-F9E8F50D4E9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9228AB-68EF-43F3-AF92-5EF3FE4484B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C6B82-087F-4362-9A7A-668725E0742B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9D6623-301C-4034-8400-34989860AE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D99471C-5E2E-4880-B734-8285BAD0DD3C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P42C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A68941-BE10-4D1E-A7DA-9917407E86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5619EE9D-C0A9-43C9-B4CC-5EFD508668B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C79F95AB-0B91-4A04-B2E7-0C8DAD30A31C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86C5840B-1FFB-4A7E-AF2A-FA3D146C1D38}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>12,73%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>87,27%</t>
   </si>
   <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>25,46%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>45,68%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -169,73 +169,73 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -244,73 +244,73 @@
     <t>6,13%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>48,67%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>51,33%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB28923-96E1-4987-8496-F9E8F50D4E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04AA7E9-FBEA-40DA-AF01-443DB9A1E1A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01C6B82-087F-4362-9A7A-668725E0742B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95FA8FF-08D1-412E-B8ED-A8EF907F68F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D99471C-5E2E-4880-B734-8285BAD0DD3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA783A-4BEA-48FA-B9C1-C81D98195F36}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P42C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5619EE9D-C0A9-43C9-B4CC-5EFD508668B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37CF4F3E-462F-490B-907E-DEF707B8143F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86C5840B-1FFB-4A7E-AF2A-FA3D146C1D38}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68BA328E-132C-41F5-BAA6-B65EE21D6B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -241,76 +241,76 @@
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04AA7E9-FBEA-40DA-AF01-443DB9A1E1A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA48B94-7B1D-4B81-9D25-3817E734D79D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95FA8FF-08D1-412E-B8ED-A8EF907F68F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BA8E5B-0043-4106-906B-B2F19972785C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA783A-4BEA-48FA-B9C1-C81D98195F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026E9976-2EF8-4426-B00E-841C86884628}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2310,7 +2310,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>29528</v>
+        <v>27075</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>67</v>
@@ -2325,7 +2325,7 @@
         <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>29528</v>
+        <v>27075</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>67</v>
@@ -2359,7 +2359,7 @@
         <v>776</v>
       </c>
       <c r="I5" s="7">
-        <v>452411</v>
+        <v>405581</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>70</v>
@@ -2374,7 +2374,7 @@
         <v>776</v>
       </c>
       <c r="N5" s="7">
-        <v>452411</v>
+        <v>405581</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>70</v>
@@ -2408,7 +2408,7 @@
         <v>823</v>
       </c>
       <c r="I6" s="7">
-        <v>481939</v>
+        <v>432656</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2423,7 +2423,7 @@
         <v>823</v>
       </c>
       <c r="N6" s="7">
-        <v>481939</v>
+        <v>432656</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2459,7 +2459,7 @@
         <v>363</v>
       </c>
       <c r="I7" s="7">
-        <v>263033</v>
+        <v>243778</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>73</v>
@@ -2474,7 +2474,7 @@
         <v>363</v>
       </c>
       <c r="N7" s="7">
-        <v>263033</v>
+        <v>243778</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>73</v>
@@ -2508,7 +2508,7 @@
         <v>1355</v>
       </c>
       <c r="I8" s="7">
-        <v>931731</v>
+        <v>933901</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>76</v>
@@ -2523,7 +2523,7 @@
         <v>1355</v>
       </c>
       <c r="N8" s="7">
-        <v>931731</v>
+        <v>933901</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>76</v>
@@ -2557,7 +2557,7 @@
         <v>1718</v>
       </c>
       <c r="I9" s="7">
-        <v>1194764</v>
+        <v>1177679</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
         <v>1718</v>
       </c>
       <c r="N9" s="7">
-        <v>1194764</v>
+        <v>1177679</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2608,7 +2608,7 @@
         <v>299</v>
       </c>
       <c r="I10" s="7">
-        <v>210361</v>
+        <v>195146</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>79</v>
@@ -2623,7 +2623,7 @@
         <v>299</v>
       </c>
       <c r="N10" s="7">
-        <v>210361</v>
+        <v>195146</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>79</v>
@@ -2657,7 +2657,7 @@
         <v>333</v>
       </c>
       <c r="I11" s="7">
-        <v>221821</v>
+        <v>206217</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>82</v>
@@ -2672,7 +2672,7 @@
         <v>333</v>
       </c>
       <c r="N11" s="7">
-        <v>221821</v>
+        <v>206217</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>82</v>
@@ -2706,7 +2706,7 @@
         <v>632</v>
       </c>
       <c r="I12" s="7">
-        <v>432182</v>
+        <v>401363</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2721,7 +2721,7 @@
         <v>632</v>
       </c>
       <c r="N12" s="7">
-        <v>432182</v>
+        <v>401363</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2757,7 +2757,7 @@
         <v>709</v>
       </c>
       <c r="I13" s="7">
-        <v>502923</v>
+        <v>465999</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2772,7 +2772,7 @@
         <v>709</v>
       </c>
       <c r="N13" s="7">
-        <v>502923</v>
+        <v>465999</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2806,7 +2806,7 @@
         <v>2464</v>
       </c>
       <c r="I14" s="7">
-        <v>1605962</v>
+        <v>1545699</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -2821,7 +2821,7 @@
         <v>2464</v>
       </c>
       <c r="N14" s="7">
-        <v>1605962</v>
+        <v>1545699</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>88</v>
@@ -2855,7 +2855,7 @@
         <v>3173</v>
       </c>
       <c r="I15" s="7">
-        <v>2108885</v>
+        <v>2011698</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2870,7 +2870,7 @@
         <v>3173</v>
       </c>
       <c r="N15" s="7">
-        <v>2108885</v>
+        <v>2011698</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
